--- a/Scrum/Proyect/Agile-release-plan-template.xlsx
+++ b/Scrum/Proyect/Agile-release-plan-template.xlsx
@@ -1,87 +1,128 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <definedNames>
-    <definedName name="Status">Sheet2!$A$5:$A$7</definedName>
-  </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Macintosh Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>2</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="2" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+      <vt:lpstr>Sheet2</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>14.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Release Date</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Released</t>
-  </si>
-  <si>
-    <t>Agile Release Plan</t>
-  </si>
-  <si>
-    <t>Create an Agile Release Plan in Smartsheet</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>This section is for the drop-down list</t>
-  </si>
-</sst>
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Emily Esposito</dc:creator>
+  <cp:lastModifiedBy>Emily Esposito</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T18:48:51Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2016-02-17T22:46:33Z</dcterms:modified>
+</cp:coreProperties>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="5956300"/>
+          <a:ext cx="9588500" cy="3327400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1550330</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25398</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7811430" y="177800"/>
+          <a:ext cx="1980268" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+</file>
+
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -327,88 +368,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1841500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="5956300"/>
-          <a:ext cx="9588500" cy="3327400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1550330</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25398</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7811430" y="177800"/>
-          <a:ext cx="1980268" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -728,7 +688,30 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <definedNames>
+    <definedName name="Status">Sheet2!$A$5:$A$7</definedName>
+  </definedNames>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O66"/>
   <sheetViews>
@@ -747,8 +730,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="15" t="s">
-        <v>10</v>
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Agile Release Plan</t>
+        </is>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -817,29 +802,45 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="18">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>5</v>
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Sprint</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Release Date</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Goal</t>
+        </is>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -853,8 +854,10 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
       </c>
       <c r="C6" s="9">
         <v>42405</v>
@@ -864,10 +867,11 @@
       </c>
       <c r="E6" s="4">
         <f>D6-C6</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
       </c>
       <c r="G6" s="12">
         <v>42412</v>
@@ -885,8 +889,10 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
       </c>
       <c r="C7" s="10">
         <v>42412</v>
@@ -896,10 +902,11 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" ref="E7:E24" si="0">D7-C7</f>
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Released</t>
+        </is>
       </c>
       <c r="G7" s="13">
         <v>42424</v>
@@ -917,8 +924,10 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
       </c>
       <c r="C8" s="10">
         <v>42419</v>
@@ -928,10 +937,11 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
       </c>
       <c r="G8" s="13">
         <v>42430</v>
@@ -949,8 +959,10 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
       </c>
       <c r="C9" s="10">
         <v>42422</v>
@@ -960,10 +972,11 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
       </c>
       <c r="G9" s="13">
         <v>42437</v>
@@ -984,7 +997,6 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
@@ -1004,7 +1016,6 @@
       <c r="D11" s="2"/>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
@@ -1024,7 +1035,6 @@
       <c r="D12" s="2"/>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
@@ -1044,7 +1054,6 @@
       <c r="D13" s="2"/>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
@@ -1064,7 +1073,6 @@
       <c r="D14" s="2"/>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
@@ -1084,7 +1092,6 @@
       <c r="D15" s="2"/>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
@@ -1104,7 +1111,6 @@
       <c r="D16" s="2"/>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
@@ -1124,7 +1130,6 @@
       <c r="D17" s="2"/>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
@@ -1144,7 +1149,6 @@
       <c r="D18" s="2"/>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
@@ -1164,7 +1168,6 @@
       <c r="D19" s="2"/>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
@@ -1184,7 +1187,6 @@
       <c r="D20" s="2"/>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
@@ -1204,7 +1206,6 @@
       <c r="D21" s="2"/>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
@@ -1224,7 +1225,6 @@
       <c r="D22" s="2"/>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
@@ -1244,7 +1244,6 @@
       <c r="D23" s="2"/>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
@@ -1264,7 +1263,6 @@
       <c r="D24" s="3"/>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
@@ -1312,8 +1310,10 @@
       <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="17" t="s">
-        <v>11</v>
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>Create an Agile Release Plan in Smartsheet</t>
+        </is>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2032,7 +2032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
@@ -2043,23 +2043,31 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>This section is for the drop-down list</t>
+        </is>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Released</t>
+        </is>
       </c>
     </row>
   </sheetData>
